--- a/Blackpool To-Do List.xlsx
+++ b/Blackpool To-Do List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>What is this???</t>
+  </si>
+  <si>
+    <t>Add "Admin" Menu to Blackpool with BASECAP options, AIRBOSS start/stop, more?</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
   <dimension ref="B1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1225,11 +1228,19 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">

--- a/Blackpool To-Do List.xlsx
+++ b/Blackpool To-Do List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Change F18 AI to cary 2 doube pylon of 120s instead of 4 single pylons</t>
   </si>
   <si>
-    <t>Add location to Ramat David Hercules</t>
-  </si>
-  <si>
     <t>How do we deal with tankers in clouds?</t>
   </si>
   <si>
@@ -77,10 +74,16 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>What is this???</t>
-  </si>
-  <si>
     <t>Add "Admin" Menu to Blackpool with BASECAP options, AIRBOSS start/stop, more?</t>
+  </si>
+  <si>
+    <t>turn off Everytime a plan lands on the map?</t>
+  </si>
+  <si>
+    <t>commented out, along with "has killed"</t>
+  </si>
+  <si>
+    <t>Change breifing tanker freq</t>
   </si>
 </sst>
 </file>
@@ -775,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F44" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:F44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:F43">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Not Started"/>
@@ -1103,10 +1106,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1176,52 +1179,52 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1229,24 +1232,32 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
@@ -1257,14 +1268,14 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1272,11 +1283,11 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -1481,19 +1492,12 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E8 E10 E13 E15:E44">
+  <conditionalFormatting sqref="E4:E7 E9 E12 E14:E43">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
@@ -1507,7 +1511,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1521,7 +1525,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="E10:E11">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1535,7 +1539,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1558,13 +1562,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="E3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="F3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="F1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D44">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D43">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C44">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C43">
       <formula1>"3-Low, 2-Normal, 1-High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="E4:E44">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="E4:E43">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1591,7 +1595,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10 E13 E15:E44</xm:sqref>
+          <xm:sqref>E4:E7 E9 E12 E14:E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D53A291-3313-4D46-B892-BE770FC439C0}">
@@ -1603,7 +1607,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9</xm:sqref>
+          <xm:sqref>E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7F0F4D9B-A591-414D-A72E-872F7AEF14B9}">
@@ -1615,7 +1619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E11:E12</xm:sqref>
+          <xm:sqref>E10:E11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{956601FC-8085-41DB-AA08-65608C5DE30E}">
@@ -1627,7 +1631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E14</xm:sqref>
+          <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
